--- a/Процесс создания архиватора.xlsx
+++ b/Процесс создания архиватора.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Создать удобный интерфейс</t>
   </si>
   <si>
-    <t xml:space="preserve">Дополнительный требования:</t>
+    <t xml:space="preserve">Дополнительные требования:</t>
   </si>
   <si>
     <t xml:space="preserve">Темная и светлая тема</t>
@@ -121,7 +121,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,8 +130,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB3CAC7"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -176,32 +188,44 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -214,6 +238,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3CAC7"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -397,112 +481,112 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="54.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Процесс создания архиватора.xlsx
+++ b/Процесс создания архиватора.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,91 +19,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">Задачи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Статус</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обязательные требования:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Совместимость с РЕД ОС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Создание и извлечение архивов.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Просмотр содержимого архивов (без распаковки тоже)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поддержка работы с большими файлами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Локализация приложения на английский и русский языки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">README-файл с описанием установки и использования приложения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Установка паролей для архивов (при создании)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Настраивать параметры сжатия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Создать удобный интерфейс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дополнительные требования:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Темная и светлая тема</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Функция восстановления поврежденных архивов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Интеграция с файловым менеджером РЕД ОС для быстрого доступа (контекстное меню).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Статистика архива</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Задачи</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Обязательные требования:</t>
+  </si>
+  <si>
+    <t>Совместимость с РЕД ОС</t>
+  </si>
+  <si>
+    <t>Создание и извлечение архивов.</t>
+  </si>
+  <si>
+    <t>Просмотр содержимого архивов (без распаковки тоже)</t>
+  </si>
+  <si>
+    <t>Поддержка работы с большими файлами</t>
+  </si>
+  <si>
+    <t>Локализация приложения на английский и русский языки</t>
+  </si>
+  <si>
+    <t>README-файл с описанием установки и использования приложения</t>
+  </si>
+  <si>
+    <t>Установка паролей для архивов (при создании)</t>
+  </si>
+  <si>
+    <t>Настраивать параметры сжатия</t>
+  </si>
+  <si>
+    <t>Создать удобный интерфейс</t>
+  </si>
+  <si>
+    <t>Дополнительные требования:</t>
+  </si>
+  <si>
+    <t>Темная и светлая тема</t>
+  </si>
+  <si>
+    <t>Функция восстановления поврежденных архивов</t>
+  </si>
+  <si>
+    <t>Интеграция с файловым менеджером РЕД ОС для быстрого доступа (контекстное меню).</t>
+  </si>
+  <si>
+    <t>Статистика архива</t>
+  </si>
+  <si>
+    <t>Всё готово</t>
+  </si>
+  <si>
+    <t>Частично готово</t>
+  </si>
+  <si>
+    <t>Не готово</t>
+  </si>
+  <si>
+    <t>Не начато</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="20"/>
@@ -121,7 +111,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,98 +136,76 @@
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -296,60 +264,73 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -381,7 +362,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -405,7 +386,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -465,136 +446,146 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="54.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
+    <col min="1" max="1" width="54.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Процесс создания архиватора.xlsx
+++ b/Процесс создания архиватора.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hackathon\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hackathon\Documents\GitHub\ZipVolokSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2039AA-5D57-4A47-9493-5CB85DC5813E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD17105C-DE86-4DD7-BC8F-D920B161927B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Процесс создания архиватора.xlsx
+++ b/Процесс создания архиватора.xlsx
@@ -111,7 +111,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +152,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -182,13 +194,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -200,6 +211,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -461,7 +478,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,13 +498,13 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>19</v>
       </c>
       <c r="G1" t="s">
@@ -507,34 +524,34 @@
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -543,16 +560,16 @@
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -561,10 +578,10 @@
       <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -573,7 +590,7 @@
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="4"/>

--- a/Процесс создания архиватора.xlsx
+++ b/Процесс создания архиватора.xlsx
@@ -132,12 +132,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -163,6 +157,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
@@ -194,29 +194,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -478,7 +477,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,13 +497,13 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G1" t="s">
@@ -524,31 +523,31 @@
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="5"/>
@@ -566,10 +565,10 @@
       <c r="B10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -578,10 +577,10 @@
       <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -590,7 +589,7 @@
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="4"/>
